--- a/010-外部設計/納品物/017-ER図.xlsx
+++ b/010-外部設計/納品物/017-ER図.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DI-SYSTEM\FileServer01\TOKYO\ビジネスインテグレーション部\999_個人フォルダ\山埜\2023コムウェア作業\総合演習\データベース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\010-外部設計\納品物\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C67F371-E8CC-4936-A614-BA781BB59456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="-15" windowWidth="7650" windowHeight="8730" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-8370" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
     <sheet name="改訂履歴" sheetId="11" r:id="rId2"/>
     <sheet name="E-R図" sheetId="27" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -464,11 +476,45 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>xyz株式会社</t>
+    <rPh sb="3" eb="7">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>岡本 毅斗</t>
+    <rPh sb="0" eb="2">
+      <t>オカモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タケシト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表紙</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>未記入部分の記載</t>
+    <rPh sb="0" eb="5">
+      <t>ミキニュウブブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1298,11 +1344,53 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1340,63 +1428,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1419,6 +1452,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1496,10 +1542,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_ﾌﾟﾛｸﾞﾗﾑ一覧" xfId="1"/>
-    <cellStyle name="標準_機能一覧_テンプレート" xfId="2"/>
-    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="3"/>
-    <cellStyle name="標準_詳細設計書_サンプル" xfId="4"/>
+    <cellStyle name="標準_ﾌﾟﾛｸﾞﾗﾑ一覧" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_機能一覧_テンプレート" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_詳細設計書_サンプル" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1531,7 +1577,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1031" name="Line 7"/>
+        <xdr:cNvPr id="1031" name="Line 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1579,7 +1631,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1032" name="Line 8"/>
+        <xdr:cNvPr id="1032" name="Line 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1632,22 +1690,34 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15361" name="Group 1"/>
+        <xdr:cNvPr id="15361" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000013C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8960898" y="6057160"/>
-          <a:ext cx="406893" cy="147961"/>
+          <a:off x="8147112" y="6010922"/>
+          <a:ext cx="369903" cy="147961"/>
           <a:chOff x="441" y="342"/>
           <a:chExt cx="168" cy="144"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15362" name="Line 2"/>
+          <xdr:cNvPr id="15362" name="Line 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000023C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -1680,7 +1750,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15363" name="Line 3"/>
+          <xdr:cNvPr id="15363" name="Line 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000033C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -1713,7 +1789,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15364" name="Line 4"/>
+          <xdr:cNvPr id="15364" name="Line 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000043C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -1746,7 +1828,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15365" name="Line 5"/>
+          <xdr:cNvPr id="15365" name="Line 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000053C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -1795,22 +1883,34 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15366" name="Group 6"/>
+        <xdr:cNvPr id="15366" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000063C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8960898" y="5779733"/>
-          <a:ext cx="406893" cy="129466"/>
+          <a:off x="8147112" y="5733495"/>
+          <a:ext cx="369903" cy="129466"/>
           <a:chOff x="441" y="342"/>
           <a:chExt cx="168" cy="144"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15367" name="Line 7"/>
+          <xdr:cNvPr id="15367" name="Line 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000073C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -1843,7 +1943,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15368" name="Line 8"/>
+          <xdr:cNvPr id="15368" name="Line 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000083C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -1876,7 +1982,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15369" name="Line 9"/>
+          <xdr:cNvPr id="15369" name="Line 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000093C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -1925,22 +2037,34 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15370" name="Group 10"/>
+        <xdr:cNvPr id="15370" name="Group 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A3C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8960898" y="5909199"/>
-          <a:ext cx="406893" cy="147961"/>
+          <a:off x="8147112" y="5862961"/>
+          <a:ext cx="369903" cy="147961"/>
           <a:chOff x="441" y="342"/>
           <a:chExt cx="168" cy="144"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15371" name="Line 11"/>
+          <xdr:cNvPr id="15371" name="Line 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -1973,7 +2097,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15372" name="Oval 12"/>
+          <xdr:cNvPr id="15372" name="Oval 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2001,7 +2131,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15373" name="Line 13"/>
+          <xdr:cNvPr id="15373" name="Line 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2050,22 +2186,34 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15374" name="Group 14"/>
+        <xdr:cNvPr id="15374" name="Group 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E3C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8960898" y="6205121"/>
-          <a:ext cx="406893" cy="147962"/>
+          <a:off x="8147112" y="6158883"/>
+          <a:ext cx="369903" cy="147962"/>
           <a:chOff x="441" y="342"/>
           <a:chExt cx="168" cy="144"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15375" name="Line 15"/>
+          <xdr:cNvPr id="15375" name="Line 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2098,7 +2246,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15376" name="Line 16"/>
+          <xdr:cNvPr id="15376" name="Line 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000103C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2131,7 +2285,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15377" name="Line 17"/>
+          <xdr:cNvPr id="15377" name="Line 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000113C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2164,7 +2324,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15378" name="Oval 18"/>
+          <xdr:cNvPr id="15378" name="Oval 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000123C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2208,7 +2374,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="4" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -2264,7 +2436,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="円/楕円 3"/>
+        <xdr:cNvPr id="4" name="円/楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2326,7 +2504,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="6"/>
         </xdr:cNvCxnSpPr>
@@ -2382,7 +2566,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線コネクタ 24"/>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="6"/>
         </xdr:cNvCxnSpPr>
@@ -2438,7 +2628,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26"/>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="6"/>
         </xdr:cNvCxnSpPr>
@@ -2494,7 +2690,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線コネクタ 31"/>
+        <xdr:cNvPr id="32" name="直線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -2548,7 +2750,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線コネクタ 34"/>
+        <xdr:cNvPr id="35" name="直線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -2602,7 +2810,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="円/楕円 35"/>
+        <xdr:cNvPr id="36" name="円/楕円 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2664,7 +2878,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線コネクタ 36"/>
+        <xdr:cNvPr id="37" name="直線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="36" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -2720,7 +2940,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線コネクタ 39"/>
+        <xdr:cNvPr id="40" name="直線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="36" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -2776,7 +3002,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線コネクタ 42"/>
+        <xdr:cNvPr id="43" name="直線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="36" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -2832,7 +3064,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線コネクタ 45"/>
+        <xdr:cNvPr id="46" name="直線コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="36" idx="6"/>
         </xdr:cNvCxnSpPr>
@@ -2888,7 +3126,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直線コネクタ 48"/>
+        <xdr:cNvPr id="49" name="直線コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -2942,7 +3186,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線コネクタ 49"/>
+        <xdr:cNvPr id="50" name="直線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -2996,7 +3246,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線コネクタ 51"/>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -3050,7 +3306,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線コネクタ 52"/>
+        <xdr:cNvPr id="53" name="直線コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -3104,7 +3366,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="円/楕円 53"/>
+        <xdr:cNvPr id="54" name="円/楕円 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3166,7 +3434,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線コネクタ 54"/>
+        <xdr:cNvPr id="55" name="直線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="54" idx="6"/>
         </xdr:cNvCxnSpPr>
@@ -3222,7 +3496,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線コネクタ 55"/>
+        <xdr:cNvPr id="56" name="直線コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="54" idx="6"/>
         </xdr:cNvCxnSpPr>
@@ -3278,7 +3558,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線コネクタ 56"/>
+        <xdr:cNvPr id="57" name="直線コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="54" idx="6"/>
         </xdr:cNvCxnSpPr>
@@ -3334,7 +3620,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="円/楕円 57"/>
+        <xdr:cNvPr id="58" name="円/楕円 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3396,7 +3688,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線コネクタ 58"/>
+        <xdr:cNvPr id="59" name="直線コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="58" idx="6"/>
         </xdr:cNvCxnSpPr>
@@ -3452,7 +3750,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線コネクタ 59"/>
+        <xdr:cNvPr id="60" name="直線コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="58" idx="6"/>
         </xdr:cNvCxnSpPr>
@@ -3508,7 +3812,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線コネクタ 60"/>
+        <xdr:cNvPr id="61" name="直線コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="58" idx="6"/>
         </xdr:cNvCxnSpPr>
@@ -3564,7 +3874,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="カギ線コネクタ 23"/>
+        <xdr:cNvPr id="24" name="カギ線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="54" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -3620,7 +3936,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線コネクタ 64"/>
+        <xdr:cNvPr id="65" name="直線コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -3674,7 +3996,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線コネクタ 28"/>
+        <xdr:cNvPr id="29" name="直線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="58" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -3730,7 +4058,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="円/楕円 68"/>
+        <xdr:cNvPr id="69" name="円/楕円 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3792,7 +4126,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線コネクタ 69"/>
+        <xdr:cNvPr id="70" name="直線コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="69" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -3848,7 +4188,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線コネクタ 70"/>
+        <xdr:cNvPr id="71" name="直線コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="69" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -3904,7 +4250,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線コネクタ 71"/>
+        <xdr:cNvPr id="72" name="直線コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="69" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -3960,7 +4312,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線コネクタ 72"/>
+        <xdr:cNvPr id="73" name="直線コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="69" idx="6"/>
         </xdr:cNvCxnSpPr>
@@ -4016,7 +4374,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="直線コネクタ 73"/>
+        <xdr:cNvPr id="74" name="直線コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -4070,7 +4434,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="直線コネクタ 74"/>
+        <xdr:cNvPr id="75" name="直線コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -4124,7 +4494,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線コネクタ 77"/>
+        <xdr:cNvPr id="78" name="直線コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -4178,7 +4554,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線コネクタ 78"/>
+        <xdr:cNvPr id="79" name="直線コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -4232,7 +4614,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="円/楕円 79"/>
+        <xdr:cNvPr id="80" name="円/楕円 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4294,7 +4682,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線コネクタ 80"/>
+        <xdr:cNvPr id="81" name="直線コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="80" idx="4"/>
         </xdr:cNvCxnSpPr>
@@ -4350,7 +4744,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="直線コネクタ 83"/>
+        <xdr:cNvPr id="84" name="直線コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="80" idx="4"/>
         </xdr:cNvCxnSpPr>
@@ -4406,7 +4806,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="直線コネクタ 88"/>
+        <xdr:cNvPr id="89" name="直線コネクタ 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="80" idx="4"/>
         </xdr:cNvCxnSpPr>
@@ -4462,7 +4868,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直線コネクタ 91"/>
+        <xdr:cNvPr id="92" name="直線コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="80" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -4518,7 +4930,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="直線コネクタ 94"/>
+        <xdr:cNvPr id="95" name="直線コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -4572,7 +4990,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="直線コネクタ 95"/>
+        <xdr:cNvPr id="96" name="直線コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -4985,17 +5409,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="4"/>
+    <col min="1" max="16384" width="2.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1">
@@ -5108,23 +5530,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="76" t="s">
+      <c r="B3" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -5140,49 +5564,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="60" t="s">
+      <c r="AF3" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="73" t="s">
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="64"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -5198,26 +5622,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="73"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="73"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="64"/>
+      <c r="AQ4" s="64"/>
+      <c r="AR4" s="64"/>
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="64"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -5823,44 +6247,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="78" t="s">
+      <c r="I16" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="79"/>
-      <c r="AJ16" s="79"/>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="79"/>
-      <c r="AM16" s="79"/>
-      <c r="AN16" s="79"/>
-      <c r="AO16" s="79"/>
-      <c r="AP16" s="79"/>
-      <c r="AQ16" s="79"/>
-      <c r="AR16" s="80"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="66"/>
+      <c r="AO16" s="66"/>
+      <c r="AP16" s="66"/>
+      <c r="AQ16" s="66"/>
+      <c r="AR16" s="67"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -5879,42 +6303,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="82"/>
-      <c r="AC17" s="82"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="82"/>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="82"/>
-      <c r="AH17" s="82"/>
-      <c r="AI17" s="82"/>
-      <c r="AJ17" s="82"/>
-      <c r="AK17" s="82"/>
-      <c r="AL17" s="82"/>
-      <c r="AM17" s="82"/>
-      <c r="AN17" s="82"/>
-      <c r="AO17" s="82"/>
-      <c r="AP17" s="82"/>
-      <c r="AQ17" s="82"/>
-      <c r="AR17" s="83"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="69"/>
+      <c r="AL17" s="69"/>
+      <c r="AM17" s="69"/>
+      <c r="AN17" s="69"/>
+      <c r="AO17" s="69"/>
+      <c r="AP17" s="69"/>
+      <c r="AQ17" s="69"/>
+      <c r="AR17" s="70"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -5933,42 +6357,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="82"/>
-      <c r="AC18" s="82"/>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="82"/>
-      <c r="AF18" s="82"/>
-      <c r="AG18" s="82"/>
-      <c r="AH18" s="82"/>
-      <c r="AI18" s="82"/>
-      <c r="AJ18" s="82"/>
-      <c r="AK18" s="82"/>
-      <c r="AL18" s="82"/>
-      <c r="AM18" s="82"/>
-      <c r="AN18" s="82"/>
-      <c r="AO18" s="82"/>
-      <c r="AP18" s="82"/>
-      <c r="AQ18" s="82"/>
-      <c r="AR18" s="83"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="69"/>
+      <c r="AB18" s="69"/>
+      <c r="AC18" s="69"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="69"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="69"/>
+      <c r="AL18" s="69"/>
+      <c r="AM18" s="69"/>
+      <c r="AN18" s="69"/>
+      <c r="AO18" s="69"/>
+      <c r="AP18" s="69"/>
+      <c r="AQ18" s="69"/>
+      <c r="AR18" s="70"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -5987,42 +6411,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="82"/>
-      <c r="AB19" s="82"/>
-      <c r="AC19" s="82"/>
-      <c r="AD19" s="82"/>
-      <c r="AE19" s="82"/>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="82"/>
-      <c r="AH19" s="82"/>
-      <c r="AI19" s="82"/>
-      <c r="AJ19" s="82"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="82"/>
-      <c r="AM19" s="82"/>
-      <c r="AN19" s="82"/>
-      <c r="AO19" s="82"/>
-      <c r="AP19" s="82"/>
-      <c r="AQ19" s="82"/>
-      <c r="AR19" s="83"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="69"/>
+      <c r="AD19" s="69"/>
+      <c r="AE19" s="69"/>
+      <c r="AF19" s="69"/>
+      <c r="AG19" s="69"/>
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="69"/>
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="69"/>
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="69"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="69"/>
+      <c r="AR19" s="70"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -6041,42 +6465,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="82"/>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="82"/>
-      <c r="AH20" s="82"/>
-      <c r="AI20" s="82"/>
-      <c r="AJ20" s="82"/>
-      <c r="AK20" s="82"/>
-      <c r="AL20" s="82"/>
-      <c r="AM20" s="82"/>
-      <c r="AN20" s="82"/>
-      <c r="AO20" s="82"/>
-      <c r="AP20" s="82"/>
-      <c r="AQ20" s="82"/>
-      <c r="AR20" s="83"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="69"/>
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="69"/>
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="69"/>
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="69"/>
+      <c r="AL20" s="69"/>
+      <c r="AM20" s="69"/>
+      <c r="AN20" s="69"/>
+      <c r="AO20" s="69"/>
+      <c r="AP20" s="69"/>
+      <c r="AQ20" s="69"/>
+      <c r="AR20" s="70"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -6095,42 +6519,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="82"/>
-      <c r="AC21" s="82"/>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="82"/>
-      <c r="AF21" s="82"/>
-      <c r="AG21" s="82"/>
-      <c r="AH21" s="82"/>
-      <c r="AI21" s="82"/>
-      <c r="AJ21" s="82"/>
-      <c r="AK21" s="82"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="82"/>
-      <c r="AN21" s="82"/>
-      <c r="AO21" s="82"/>
-      <c r="AP21" s="82"/>
-      <c r="AQ21" s="82"/>
-      <c r="AR21" s="83"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="69"/>
+      <c r="AC21" s="69"/>
+      <c r="AD21" s="69"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="69"/>
+      <c r="AG21" s="69"/>
+      <c r="AH21" s="69"/>
+      <c r="AI21" s="69"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="69"/>
+      <c r="AL21" s="69"/>
+      <c r="AM21" s="69"/>
+      <c r="AN21" s="69"/>
+      <c r="AO21" s="69"/>
+      <c r="AP21" s="69"/>
+      <c r="AQ21" s="69"/>
+      <c r="AR21" s="70"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -6149,42 +6573,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
-      <c r="AF22" s="82"/>
-      <c r="AG22" s="82"/>
-      <c r="AH22" s="82"/>
-      <c r="AI22" s="82"/>
-      <c r="AJ22" s="82"/>
-      <c r="AK22" s="82"/>
-      <c r="AL22" s="82"/>
-      <c r="AM22" s="82"/>
-      <c r="AN22" s="82"/>
-      <c r="AO22" s="82"/>
-      <c r="AP22" s="82"/>
-      <c r="AQ22" s="82"/>
-      <c r="AR22" s="83"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="69"/>
+      <c r="AC22" s="69"/>
+      <c r="AD22" s="69"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="69"/>
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="69"/>
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="69"/>
+      <c r="AL22" s="69"/>
+      <c r="AM22" s="69"/>
+      <c r="AN22" s="69"/>
+      <c r="AO22" s="69"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="69"/>
+      <c r="AR22" s="70"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -6203,42 +6627,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="82"/>
-      <c r="AC23" s="82"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="82"/>
-      <c r="AF23" s="82"/>
-      <c r="AG23" s="82"/>
-      <c r="AH23" s="82"/>
-      <c r="AI23" s="82"/>
-      <c r="AJ23" s="82"/>
-      <c r="AK23" s="82"/>
-      <c r="AL23" s="82"/>
-      <c r="AM23" s="82"/>
-      <c r="AN23" s="82"/>
-      <c r="AO23" s="82"/>
-      <c r="AP23" s="82"/>
-      <c r="AQ23" s="82"/>
-      <c r="AR23" s="83"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="69"/>
+      <c r="AA23" s="69"/>
+      <c r="AB23" s="69"/>
+      <c r="AC23" s="69"/>
+      <c r="AD23" s="69"/>
+      <c r="AE23" s="69"/>
+      <c r="AF23" s="69"/>
+      <c r="AG23" s="69"/>
+      <c r="AH23" s="69"/>
+      <c r="AI23" s="69"/>
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="69"/>
+      <c r="AL23" s="69"/>
+      <c r="AM23" s="69"/>
+      <c r="AN23" s="69"/>
+      <c r="AO23" s="69"/>
+      <c r="AP23" s="69"/>
+      <c r="AQ23" s="69"/>
+      <c r="AR23" s="70"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -6257,42 +6681,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="82"/>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="82"/>
-      <c r="AM24" s="82"/>
-      <c r="AN24" s="82"/>
-      <c r="AO24" s="82"/>
-      <c r="AP24" s="82"/>
-      <c r="AQ24" s="82"/>
-      <c r="AR24" s="83"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="69"/>
+      <c r="AB24" s="69"/>
+      <c r="AC24" s="69"/>
+      <c r="AD24" s="69"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="69"/>
+      <c r="AH24" s="69"/>
+      <c r="AI24" s="69"/>
+      <c r="AJ24" s="69"/>
+      <c r="AK24" s="69"/>
+      <c r="AL24" s="69"/>
+      <c r="AM24" s="69"/>
+      <c r="AN24" s="69"/>
+      <c r="AO24" s="69"/>
+      <c r="AP24" s="69"/>
+      <c r="AQ24" s="69"/>
+      <c r="AR24" s="70"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -6311,42 +6735,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="82"/>
-      <c r="AC25" s="82"/>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="82"/>
-      <c r="AF25" s="82"/>
-      <c r="AG25" s="82"/>
-      <c r="AH25" s="82"/>
-      <c r="AI25" s="82"/>
-      <c r="AJ25" s="82"/>
-      <c r="AK25" s="82"/>
-      <c r="AL25" s="82"/>
-      <c r="AM25" s="82"/>
-      <c r="AN25" s="82"/>
-      <c r="AO25" s="82"/>
-      <c r="AP25" s="82"/>
-      <c r="AQ25" s="82"/>
-      <c r="AR25" s="83"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="69"/>
+      <c r="AD25" s="69"/>
+      <c r="AE25" s="69"/>
+      <c r="AF25" s="69"/>
+      <c r="AG25" s="69"/>
+      <c r="AH25" s="69"/>
+      <c r="AI25" s="69"/>
+      <c r="AJ25" s="69"/>
+      <c r="AK25" s="69"/>
+      <c r="AL25" s="69"/>
+      <c r="AM25" s="69"/>
+      <c r="AN25" s="69"/>
+      <c r="AO25" s="69"/>
+      <c r="AP25" s="69"/>
+      <c r="AQ25" s="69"/>
+      <c r="AR25" s="70"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -6365,42 +6789,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="82"/>
-      <c r="Y26" s="82"/>
-      <c r="Z26" s="82"/>
-      <c r="AA26" s="82"/>
-      <c r="AB26" s="82"/>
-      <c r="AC26" s="82"/>
-      <c r="AD26" s="82"/>
-      <c r="AE26" s="82"/>
-      <c r="AF26" s="82"/>
-      <c r="AG26" s="82"/>
-      <c r="AH26" s="82"/>
-      <c r="AI26" s="82"/>
-      <c r="AJ26" s="82"/>
-      <c r="AK26" s="82"/>
-      <c r="AL26" s="82"/>
-      <c r="AM26" s="82"/>
-      <c r="AN26" s="82"/>
-      <c r="AO26" s="82"/>
-      <c r="AP26" s="82"/>
-      <c r="AQ26" s="82"/>
-      <c r="AR26" s="83"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="69"/>
+      <c r="AB26" s="69"/>
+      <c r="AC26" s="69"/>
+      <c r="AD26" s="69"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="69"/>
+      <c r="AH26" s="69"/>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="69"/>
+      <c r="AL26" s="69"/>
+      <c r="AM26" s="69"/>
+      <c r="AN26" s="69"/>
+      <c r="AO26" s="69"/>
+      <c r="AP26" s="69"/>
+      <c r="AQ26" s="69"/>
+      <c r="AR26" s="70"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -6419,42 +6843,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="82"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="82"/>
-      <c r="AB27" s="82"/>
-      <c r="AC27" s="82"/>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="82"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="82"/>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="82"/>
-      <c r="AM27" s="82"/>
-      <c r="AN27" s="82"/>
-      <c r="AO27" s="82"/>
-      <c r="AP27" s="82"/>
-      <c r="AQ27" s="82"/>
-      <c r="AR27" s="83"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="69"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="69"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="69"/>
+      <c r="AG27" s="69"/>
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="69"/>
+      <c r="AJ27" s="69"/>
+      <c r="AK27" s="69"/>
+      <c r="AL27" s="69"/>
+      <c r="AM27" s="69"/>
+      <c r="AN27" s="69"/>
+      <c r="AO27" s="69"/>
+      <c r="AP27" s="69"/>
+      <c r="AQ27" s="69"/>
+      <c r="AR27" s="70"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -6473,42 +6897,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AB28" s="82"/>
-      <c r="AC28" s="82"/>
-      <c r="AD28" s="82"/>
-      <c r="AE28" s="82"/>
-      <c r="AF28" s="82"/>
-      <c r="AG28" s="82"/>
-      <c r="AH28" s="82"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
-      <c r="AL28" s="82"/>
-      <c r="AM28" s="82"/>
-      <c r="AN28" s="82"/>
-      <c r="AO28" s="82"/>
-      <c r="AP28" s="82"/>
-      <c r="AQ28" s="82"/>
-      <c r="AR28" s="83"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="69"/>
+      <c r="AC28" s="69"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="69"/>
+      <c r="AG28" s="69"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="69"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="69"/>
+      <c r="AL28" s="69"/>
+      <c r="AM28" s="69"/>
+      <c r="AN28" s="69"/>
+      <c r="AO28" s="69"/>
+      <c r="AP28" s="69"/>
+      <c r="AQ28" s="69"/>
+      <c r="AR28" s="70"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -6527,42 +6951,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="85"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="85"/>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="85"/>
-      <c r="AD29" s="85"/>
-      <c r="AE29" s="85"/>
-      <c r="AF29" s="85"/>
-      <c r="AG29" s="85"/>
-      <c r="AH29" s="85"/>
-      <c r="AI29" s="85"/>
-      <c r="AJ29" s="85"/>
-      <c r="AK29" s="85"/>
-      <c r="AL29" s="85"/>
-      <c r="AM29" s="85"/>
-      <c r="AN29" s="85"/>
-      <c r="AO29" s="85"/>
-      <c r="AP29" s="85"/>
-      <c r="AQ29" s="85"/>
-      <c r="AR29" s="86"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="72"/>
+      <c r="AM29" s="72"/>
+      <c r="AN29" s="72"/>
+      <c r="AO29" s="72"/>
+      <c r="AP29" s="72"/>
+      <c r="AQ29" s="72"/>
+      <c r="AR29" s="73"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -7334,28 +7758,28 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="60" t="s">
+      <c r="AF45" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="60"/>
-      <c r="AH45" s="60"/>
-      <c r="AI45" s="60"/>
-      <c r="AJ45" s="60"/>
-      <c r="AK45" s="60"/>
-      <c r="AL45" s="73"/>
-      <c r="AM45" s="73"/>
-      <c r="AN45" s="73"/>
-      <c r="AO45" s="73"/>
-      <c r="AP45" s="73"/>
-      <c r="AQ45" s="73"/>
-      <c r="AR45" s="73"/>
-      <c r="AS45" s="73"/>
-      <c r="AT45" s="73"/>
-      <c r="AU45" s="73"/>
-      <c r="AV45" s="73"/>
-      <c r="AW45" s="73"/>
-      <c r="AX45" s="73"/>
-      <c r="AY45" s="73"/>
+      <c r="AG45" s="63"/>
+      <c r="AH45" s="63"/>
+      <c r="AI45" s="63"/>
+      <c r="AJ45" s="63"/>
+      <c r="AK45" s="63"/>
+      <c r="AL45" s="64"/>
+      <c r="AM45" s="64"/>
+      <c r="AN45" s="64"/>
+      <c r="AO45" s="64"/>
+      <c r="AP45" s="64"/>
+      <c r="AQ45" s="64"/>
+      <c r="AR45" s="64"/>
+      <c r="AS45" s="64"/>
+      <c r="AT45" s="64"/>
+      <c r="AU45" s="64"/>
+      <c r="AV45" s="64"/>
+      <c r="AW45" s="64"/>
+      <c r="AX45" s="64"/>
+      <c r="AY45" s="64"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -7390,26 +7814,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="60"/>
-      <c r="AG46" s="60"/>
-      <c r="AH46" s="60"/>
-      <c r="AI46" s="60"/>
-      <c r="AJ46" s="60"/>
-      <c r="AK46" s="60"/>
-      <c r="AL46" s="73"/>
-      <c r="AM46" s="73"/>
-      <c r="AN46" s="73"/>
-      <c r="AO46" s="73"/>
-      <c r="AP46" s="73"/>
-      <c r="AQ46" s="73"/>
-      <c r="AR46" s="73"/>
-      <c r="AS46" s="73"/>
-      <c r="AT46" s="73"/>
-      <c r="AU46" s="73"/>
-      <c r="AV46" s="73"/>
-      <c r="AW46" s="73"/>
-      <c r="AX46" s="73"/>
-      <c r="AY46" s="73"/>
+      <c r="AF46" s="63"/>
+      <c r="AG46" s="63"/>
+      <c r="AH46" s="63"/>
+      <c r="AI46" s="63"/>
+      <c r="AJ46" s="63"/>
+      <c r="AK46" s="63"/>
+      <c r="AL46" s="64"/>
+      <c r="AM46" s="64"/>
+      <c r="AN46" s="64"/>
+      <c r="AO46" s="64"/>
+      <c r="AP46" s="64"/>
+      <c r="AQ46" s="64"/>
+      <c r="AR46" s="64"/>
+      <c r="AS46" s="64"/>
+      <c r="AT46" s="64"/>
+      <c r="AU46" s="64"/>
+      <c r="AV46" s="64"/>
+      <c r="AW46" s="64"/>
+      <c r="AX46" s="64"/>
+      <c r="AY46" s="64"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -7444,28 +7868,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="60" t="s">
+      <c r="AF47" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="60"/>
-      <c r="AH47" s="60"/>
-      <c r="AI47" s="60"/>
-      <c r="AJ47" s="60"/>
-      <c r="AK47" s="60"/>
-      <c r="AL47" s="59"/>
-      <c r="AM47" s="59"/>
-      <c r="AN47" s="59"/>
-      <c r="AO47" s="59"/>
-      <c r="AP47" s="59"/>
-      <c r="AQ47" s="59"/>
-      <c r="AR47" s="59"/>
-      <c r="AS47" s="59"/>
-      <c r="AT47" s="59"/>
-      <c r="AU47" s="59"/>
-      <c r="AV47" s="59"/>
-      <c r="AW47" s="59"/>
-      <c r="AX47" s="59"/>
-      <c r="AY47" s="59"/>
+      <c r="AG47" s="63"/>
+      <c r="AH47" s="63"/>
+      <c r="AI47" s="63"/>
+      <c r="AJ47" s="63"/>
+      <c r="AK47" s="63"/>
+      <c r="AL47" s="74">
+        <v>45537</v>
+      </c>
+      <c r="AM47" s="74"/>
+      <c r="AN47" s="74"/>
+      <c r="AO47" s="74"/>
+      <c r="AP47" s="74"/>
+      <c r="AQ47" s="74"/>
+      <c r="AR47" s="74"/>
+      <c r="AS47" s="74"/>
+      <c r="AT47" s="74"/>
+      <c r="AU47" s="74"/>
+      <c r="AV47" s="74"/>
+      <c r="AW47" s="74"/>
+      <c r="AX47" s="74"/>
+      <c r="AY47" s="74"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -7500,26 +7926,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="60"/>
-      <c r="AG48" s="60"/>
-      <c r="AH48" s="60"/>
-      <c r="AI48" s="60"/>
-      <c r="AJ48" s="60"/>
-      <c r="AK48" s="60"/>
-      <c r="AL48" s="59"/>
-      <c r="AM48" s="59"/>
-      <c r="AN48" s="59"/>
-      <c r="AO48" s="59"/>
-      <c r="AP48" s="59"/>
-      <c r="AQ48" s="59"/>
-      <c r="AR48" s="59"/>
-      <c r="AS48" s="59"/>
-      <c r="AT48" s="59"/>
-      <c r="AU48" s="59"/>
-      <c r="AV48" s="59"/>
-      <c r="AW48" s="59"/>
-      <c r="AX48" s="59"/>
-      <c r="AY48" s="59"/>
+      <c r="AF48" s="63"/>
+      <c r="AG48" s="63"/>
+      <c r="AH48" s="63"/>
+      <c r="AI48" s="63"/>
+      <c r="AJ48" s="63"/>
+      <c r="AK48" s="63"/>
+      <c r="AL48" s="74"/>
+      <c r="AM48" s="74"/>
+      <c r="AN48" s="74"/>
+      <c r="AO48" s="74"/>
+      <c r="AP48" s="74"/>
+      <c r="AQ48" s="74"/>
+      <c r="AR48" s="74"/>
+      <c r="AS48" s="74"/>
+      <c r="AT48" s="74"/>
+      <c r="AU48" s="74"/>
+      <c r="AV48" s="74"/>
+      <c r="AW48" s="74"/>
+      <c r="AX48" s="74"/>
+      <c r="AY48" s="74"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -7554,28 +7980,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="61" t="s">
+      <c r="AF49" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="62"/>
-      <c r="AH49" s="62"/>
-      <c r="AI49" s="62"/>
-      <c r="AJ49" s="62"/>
-      <c r="AK49" s="63"/>
-      <c r="AL49" s="67"/>
-      <c r="AM49" s="68"/>
-      <c r="AN49" s="68"/>
-      <c r="AO49" s="68"/>
-      <c r="AP49" s="68"/>
-      <c r="AQ49" s="68"/>
-      <c r="AR49" s="68"/>
-      <c r="AS49" s="68"/>
-      <c r="AT49" s="68"/>
-      <c r="AU49" s="68"/>
-      <c r="AV49" s="68"/>
-      <c r="AW49" s="68"/>
-      <c r="AX49" s="68"/>
-      <c r="AY49" s="69"/>
+      <c r="AG49" s="76"/>
+      <c r="AH49" s="76"/>
+      <c r="AI49" s="76"/>
+      <c r="AJ49" s="76"/>
+      <c r="AK49" s="77"/>
+      <c r="AL49" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM49" s="82"/>
+      <c r="AN49" s="82"/>
+      <c r="AO49" s="82"/>
+      <c r="AP49" s="82"/>
+      <c r="AQ49" s="82"/>
+      <c r="AR49" s="82"/>
+      <c r="AS49" s="82"/>
+      <c r="AT49" s="82"/>
+      <c r="AU49" s="82"/>
+      <c r="AV49" s="82"/>
+      <c r="AW49" s="82"/>
+      <c r="AX49" s="82"/>
+      <c r="AY49" s="83"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -7610,26 +8038,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="64"/>
-      <c r="AG50" s="65"/>
-      <c r="AH50" s="65"/>
-      <c r="AI50" s="65"/>
-      <c r="AJ50" s="65"/>
-      <c r="AK50" s="66"/>
-      <c r="AL50" s="70"/>
-      <c r="AM50" s="71"/>
-      <c r="AN50" s="71"/>
-      <c r="AO50" s="71"/>
-      <c r="AP50" s="71"/>
-      <c r="AQ50" s="71"/>
-      <c r="AR50" s="71"/>
-      <c r="AS50" s="71"/>
-      <c r="AT50" s="71"/>
-      <c r="AU50" s="71"/>
-      <c r="AV50" s="71"/>
-      <c r="AW50" s="71"/>
-      <c r="AX50" s="71"/>
-      <c r="AY50" s="72"/>
+      <c r="AF50" s="78"/>
+      <c r="AG50" s="79"/>
+      <c r="AH50" s="79"/>
+      <c r="AI50" s="79"/>
+      <c r="AJ50" s="79"/>
+      <c r="AK50" s="80"/>
+      <c r="AL50" s="84"/>
+      <c r="AM50" s="85"/>
+      <c r="AN50" s="85"/>
+      <c r="AO50" s="85"/>
+      <c r="AP50" s="85"/>
+      <c r="AQ50" s="85"/>
+      <c r="AR50" s="85"/>
+      <c r="AS50" s="85"/>
+      <c r="AT50" s="85"/>
+      <c r="AU50" s="85"/>
+      <c r="AV50" s="85"/>
+      <c r="AW50" s="85"/>
+      <c r="AX50" s="85"/>
+      <c r="AY50" s="86"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -7742,17 +8170,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -7765,253 +8193,253 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AZ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="16"/>
+    <col min="1" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
-      <c r="AN1" s="95"/>
-      <c r="AO1" s="95"/>
-      <c r="AP1" s="95"/>
-      <c r="AQ1" s="95"/>
-      <c r="AR1" s="95"/>
-      <c r="AS1" s="95"/>
-      <c r="AT1" s="95"/>
-      <c r="AU1" s="95"/>
-      <c r="AV1" s="95"/>
-      <c r="AW1" s="95"/>
-      <c r="AX1" s="95"/>
-      <c r="AY1" s="95"/>
-      <c r="AZ1" s="96"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="91"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98"/>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="98"/>
-      <c r="AW2" s="98"/>
-      <c r="AX2" s="98"/>
-      <c r="AY2" s="98"/>
-      <c r="AZ2" s="99"/>
-    </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AW2" s="93"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="93"/>
+      <c r="AZ2" s="94"/>
+    </row>
+    <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="89" t="s">
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="89" t="s">
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="89" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="90"/>
-      <c r="AZ4" s="91"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="98"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="98"/>
+      <c r="AZ4" s="99"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="92">
+      <c r="A5" s="100">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92" t="s">
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="92"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="92"/>
-      <c r="AW5" s="92"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="92"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="100"/>
+      <c r="AB5" s="100"/>
+      <c r="AC5" s="100"/>
+      <c r="AD5" s="100"/>
+      <c r="AE5" s="100"/>
+      <c r="AF5" s="100"/>
+      <c r="AG5" s="100"/>
+      <c r="AH5" s="100"/>
+      <c r="AI5" s="100"/>
+      <c r="AJ5" s="100"/>
+      <c r="AK5" s="100"/>
+      <c r="AL5" s="100"/>
+      <c r="AM5" s="100"/>
+      <c r="AN5" s="100"/>
+      <c r="AO5" s="100"/>
+      <c r="AP5" s="100"/>
+      <c r="AQ5" s="100"/>
+      <c r="AR5" s="100"/>
+      <c r="AS5" s="100"/>
+      <c r="AT5" s="100"/>
+      <c r="AU5" s="100"/>
+      <c r="AV5" s="100"/>
+      <c r="AW5" s="100"/>
+      <c r="AX5" s="100"/>
+      <c r="AY5" s="100"/>
+      <c r="AZ5" s="100"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="87">
@@ -8019,15 +8447,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="87"/>
-      <c r="C6" s="88"/>
+      <c r="C6" s="88">
+        <v>45537</v>
+      </c>
       <c r="D6" s="88"/>
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
-      <c r="G6" s="87"/>
+      <c r="G6" s="87" t="s">
+        <v>66</v>
+      </c>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+      <c r="K6" s="87" t="s">
+        <v>67</v>
+      </c>
       <c r="L6" s="87"/>
       <c r="M6" s="87"/>
       <c r="N6" s="87"/>
@@ -8037,7 +8471,9 @@
       <c r="R6" s="87"/>
       <c r="S6" s="87"/>
       <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
+      <c r="U6" s="87" t="s">
+        <v>68</v>
+      </c>
       <c r="V6" s="87"/>
       <c r="W6" s="87"/>
       <c r="X6" s="87"/>
@@ -10294,64 +10730,256 @@
       <c r="AZ45" s="87"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="100">
+      <c r="A46" s="95">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="100"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="100"/>
-      <c r="O46" s="100"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="100"/>
-      <c r="T46" s="100"/>
-      <c r="U46" s="100"/>
-      <c r="V46" s="100"/>
-      <c r="W46" s="100"/>
-      <c r="X46" s="100"/>
-      <c r="Y46" s="100"/>
-      <c r="Z46" s="100"/>
-      <c r="AA46" s="100"/>
-      <c r="AB46" s="100"/>
-      <c r="AC46" s="100"/>
-      <c r="AD46" s="100"/>
-      <c r="AE46" s="100"/>
-      <c r="AF46" s="100"/>
-      <c r="AG46" s="100"/>
-      <c r="AH46" s="100"/>
-      <c r="AI46" s="100"/>
-      <c r="AJ46" s="100"/>
-      <c r="AK46" s="100"/>
-      <c r="AL46" s="100"/>
-      <c r="AM46" s="100"/>
-      <c r="AN46" s="100"/>
-      <c r="AO46" s="100"/>
-      <c r="AP46" s="100"/>
-      <c r="AQ46" s="100"/>
-      <c r="AR46" s="100"/>
-      <c r="AS46" s="100"/>
-      <c r="AT46" s="100"/>
-      <c r="AU46" s="100"/>
-      <c r="AV46" s="100"/>
-      <c r="AW46" s="100"/>
-      <c r="AX46" s="100"/>
-      <c r="AY46" s="100"/>
-      <c r="AZ46" s="100"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="95"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="95"/>
+      <c r="U46" s="95"/>
+      <c r="V46" s="95"/>
+      <c r="W46" s="95"/>
+      <c r="X46" s="95"/>
+      <c r="Y46" s="95"/>
+      <c r="Z46" s="95"/>
+      <c r="AA46" s="95"/>
+      <c r="AB46" s="95"/>
+      <c r="AC46" s="95"/>
+      <c r="AD46" s="95"/>
+      <c r="AE46" s="95"/>
+      <c r="AF46" s="95"/>
+      <c r="AG46" s="95"/>
+      <c r="AH46" s="95"/>
+      <c r="AI46" s="95"/>
+      <c r="AJ46" s="95"/>
+      <c r="AK46" s="95"/>
+      <c r="AL46" s="95"/>
+      <c r="AM46" s="95"/>
+      <c r="AN46" s="95"/>
+      <c r="AO46" s="95"/>
+      <c r="AP46" s="95"/>
+      <c r="AQ46" s="95"/>
+      <c r="AR46" s="95"/>
+      <c r="AS46" s="95"/>
+      <c r="AT46" s="95"/>
+      <c r="AU46" s="95"/>
+      <c r="AV46" s="95"/>
+      <c r="AW46" s="95"/>
+      <c r="AX46" s="95"/>
+      <c r="AY46" s="95"/>
+      <c r="AZ46" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="U37:AZ37"/>
+    <mergeCell ref="U38:AZ38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="U39:AZ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="U40:AZ40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="U41:AZ41"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="G44:J44"/>
     <mergeCell ref="K44:T44"/>
     <mergeCell ref="C40:F40"/>
@@ -10376,198 +11004,6 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="U37:AZ37"/>
-    <mergeCell ref="U38:AZ38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="U39:AZ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:T37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:T38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:T40"/>
-    <mergeCell ref="U40:AZ40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="U41:AZ41"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10579,18 +11015,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="28" width="2.625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="2.75" style="16" customWidth="1"/>
-    <col min="30" max="16384" width="2.625" style="16"/>
+    <col min="1" max="28" width="2.6640625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="2.77734375" style="16" customWidth="1"/>
+    <col min="30" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
@@ -10715,7 +11151,7 @@
       <c r="AX2" s="118"/>
       <c r="AY2" s="119"/>
     </row>
-    <row r="3" spans="1:51" ht="11.25" thickTop="1"/>
+    <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
       <c r="A4" s="102" t="s">
         <v>16</v>
@@ -10730,7 +11166,7 @@
       <c r="I4" s="102"/>
       <c r="J4" s="102"/>
     </row>
-    <row r="5" spans="1:51" ht="11.25" thickBot="1">
+    <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
       <c r="A5" s="103"/>
       <c r="B5" s="103"/>
       <c r="C5" s="103"/>
@@ -11310,7 +11746,7 @@
       <c r="AX15" s="29"/>
       <c r="AY15" s="30"/>
     </row>
-    <row r="16" spans="1:51" ht="12.75" thickBot="1">
+    <row r="16" spans="1:51" ht="12.6" thickBot="1">
       <c r="A16" s="27"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -13003,7 +13439,7 @@
       <c r="AX46" s="36"/>
       <c r="AY46" s="42"/>
     </row>
-    <row r="47" spans="1:51" ht="12.75" thickBot="1">
+    <row r="47" spans="1:51" ht="12.6" thickBot="1">
       <c r="A47" s="32"/>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
